--- a/src/Skull-projections/Original Datasets/197 occip.xlsx
+++ b/src/Skull-projections/Original Datasets/197 occip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/Skull-projections/Original Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/src/Skull-projections/Original Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DD7225DD-C661-2846-9C93-70035C3DF4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0883D71-36E5-BF4D-BA38-2885E9635AFC}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{DD7225DD-C661-2846-9C93-70035C3DF4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBAC1948-28D0-E247-B3FB-3B44EC9D1408}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="21460" windowHeight="15540" xr2:uid="{1F5FBC9C-D8DC-A24A-B704-5B124C9416A1}"/>
+    <workbookView xWindow="8280" yWindow="4780" windowWidth="21460" windowHeight="15540" xr2:uid="{1F5FBC9C-D8DC-A24A-B704-5B124C9416A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +129,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -214,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -226,6 +238,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,6 +255,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5820435A-585F-904F-B91D-C6C4829318B5}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,9 +1058,9 @@
       <c r="J14">
         <v>273.38749999999999</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1076,9 +1094,9 @@
       <c r="J15">
         <v>273.38749999999999</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1112,12 +1130,12 @@
       <c r="J16">
         <v>274.48610000000002</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1140,20 +1158,20 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>-94.439099999999996</v>
+        <v>-91</v>
       </c>
       <c r="I17">
-        <v>-118.2539</v>
+        <v>-125</v>
       </c>
       <c r="J17">
         <v>283.68349999999998</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1184,12 +1202,12 @@
       <c r="J18">
         <v>273.38749999999999</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -1220,12 +1238,12 @@
       <c r="J19">
         <v>257.82029999999997</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -1248,86 +1266,141 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-93.869200000000006</v>
+        <v>-90.869200000000006</v>
       </c>
       <c r="I20">
-        <v>-106.9679</v>
+        <v>-110.9679</v>
       </c>
       <c r="J20">
         <v>249.57470000000001</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
